--- a/11. BBP Blood-Brain Barrier Peptides/BBP_test.xlsx
+++ b/11. BBP Blood-Brain Barrier Peptides/BBP_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenjiaodu/Desktop/universial model/Supplementary documents Datasets and Models/11. BBP Blood-Brain Barrier Peptides/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenjiaodu/Downloads/UniDL4BioPep-main/11. BBP Blood-Brain Barrier Peptides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA927E2-A189-A14A-8671-7104E28AB76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0D0448-555D-9245-9B6D-7B3CF2757A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="1700" windowWidth="21680" windowHeight="16940" xr2:uid="{504EC0EA-6840-6E40-96F7-88C2A13783E9}"/>
+    <workbookView xWindow="4520" yWindow="2920" windowWidth="21680" windowHeight="16940" xr2:uid="{504EC0EA-6840-6E40-96F7-88C2A13783E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -218,9 +218,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -258,7 +258,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -364,7 +364,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -506,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -517,7 +517,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -551,7 +551,7 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -567,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -583,7 +583,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -591,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -599,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -607,7 +607,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -615,7 +615,7 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -623,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -631,7 +631,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -647,7 +647,7 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -655,7 +655,7 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -663,7 +663,7 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -671,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -679,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -687,7 +687,7 @@
         <v>36</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -695,7 +695,7 @@
         <v>35</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -703,7 +703,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -711,7 +711,7 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -719,7 +719,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -727,7 +727,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -735,7 +735,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -743,7 +743,7 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -751,7 +751,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
         <v>25</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -775,7 +775,7 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -799,7 +799,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -807,7 +807,7 @@
         <v>22</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -815,7 +815,7 @@
         <v>30</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>20</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -831,7 +831,7 @@
         <v>21</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
